--- a/NeuralNetwork/Analysis.xlsx
+++ b/NeuralNetwork/Analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Magisterka\Magisterka\NeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{997FDB65-D45D-45F5-B219-D343C2B4C5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE128E8-80CD-4102-9D3B-D867D4463831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AnalysisData" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AnalysisData!$I$9:$I$13</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Reset</t>
   </si>
@@ -37,7 +49,7 @@
     <t>Rebel</t>
   </si>
   <si>
-    <t>Wystapienia:</t>
+    <t>N</t>
   </si>
   <si>
     <t>Wartość punktów resetu:</t>
@@ -49,28 +61,49 @@
     <t>Wartość punktów sprzyjania:</t>
   </si>
   <si>
-    <t>Wartość punktów zaprzeczenia:</t>
-  </si>
-  <si>
     <t>Średnie:</t>
   </si>
   <si>
     <t>Mediany:</t>
   </si>
   <si>
+    <t>Dominanta:</t>
+  </si>
+  <si>
     <t>Odchylenie standardowe:</t>
+  </si>
+  <si>
+    <t>Wartość punktów zaprzeczenia:</t>
   </si>
   <si>
     <t>Wariancja:</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Alfa:</t>
+  </si>
+  <si>
+    <t>r:</t>
+  </si>
+  <si>
+    <t>t:</t>
+  </si>
+  <si>
+    <t>p:</t>
+  </si>
+  <si>
+    <t>Graniczne wartości t i r dla alfa:</t>
+  </si>
+  <si>
+    <t>Wystąpienia:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,9 +599,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -616,6 +650,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6600CC"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF0099FF"/>
+      <color rgb="FF0066FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -712,14 +755,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Wystapienia:</c:v>
+                  <c:v>Wystąpienia:</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="0099FF"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1043,14 +1086,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Wystapienia:</c:v>
+                  <c:v>Wystąpienia:</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="6600CC"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1369,7 +1412,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="00FFFF"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1724,7 +1767,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FF00FF"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1935,6 +1978,2211 @@
         <c:crossAx val="802720744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Punkty resetu a punkty sprzyjania</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AnalysisData!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="0099FF"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AnalysisData!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AnalysisData!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9BB-4BBF-9A5C-04A303A17005}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696833104"/>
+        <c:axId val="696823592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696833104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Punkty resetu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696823592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="696823592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Punkty sprzyjania</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696833104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Punkty</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> utrzymania a punkty sprzyjania</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AnalysisData!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="6600CC"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AnalysisData!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AnalysisData!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC2A-440C-97C3-5A5DF46C0876}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="842331480"/>
+        <c:axId val="842331152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="842331480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Punkty utrzymania</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842331152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="842331152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Punkty sprzyjania</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842331480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Punkty</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> resetu a punkty zaprzeczenia</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AnalysisData!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rebel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="0099FF"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AnalysisData!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AnalysisData!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7354-4398-853D-39F1C7954171}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="795517672"/>
+        <c:axId val="795515704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="795517672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Punkty resetu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795515704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="795515704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Punkty zaprzeczenia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795517672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Punkty utrzymania a punkty zaprzeczenia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AnalysisData!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rebel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="6600CC"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AnalysisData!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AnalysisData!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E31-4063-BFFF-A85F6DD2E109}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="536614728"/>
+        <c:axId val="536618664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="536614728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Punkty utrzymania</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536618664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="536618664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Punkty</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> zaprzeczenia</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536614728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2148,6 +4396,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4141,6 +6549,2070 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4303,6 +8775,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Wykres 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BAD569B-624D-356C-AB74-B9D1E78EB4DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Wykres 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991FABE2-F21C-9C87-42C9-C87A2931576A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Wykres 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E144DA52-6B6B-BEE4-8831-025DDFA84489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Wykres 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6FB377-7416-2660-84D1-5E3A7178ED58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4607,19 +9223,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4636,13 +9259,16 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4661,6 +9287,9 @@
       <c r="F2">
         <f>COUNT(A2:A16)</f>
         <v>15</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -4786,7 +9415,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4926,7 +9555,7 @@
         <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4961,7 +9590,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
@@ -5007,7 +9636,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" s="1">
         <v>7</v>
@@ -5053,7 +9682,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24" s="1">
         <v>12</v>
@@ -5065,20 +9694,20 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>_xlfn.STDEV.S(A2:A16)</f>
-        <v>1.4864467059144131</v>
+        <f>_xlfn.MODE.SNGL(A2:A16)</f>
+        <v>4</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:D25" si="5">_xlfn.STDEV.S(B2:B16)</f>
-        <v>1.3557637102737476</v>
+        <f t="shared" ref="B25:D25" si="5">_xlfn.MODE.SNGL(B2:B16)</f>
+        <v>4</v>
       </c>
       <c r="C25">
         <f t="shared" si="5"/>
-        <v>4.0964560757992237</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <f t="shared" si="5"/>
-        <v>3.0441200151548999</v>
+        <v>7</v>
       </c>
       <c r="I25" s="1">
         <v>14</v>
@@ -5099,32 +9728,32 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>_xlfn.VAR.S(A2:A16)</f>
-        <v>2.2095238095238097</v>
+        <f>_xlfn.STDEV.S(A2:A16)</f>
+        <v>1.4864467059144131</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:D28" si="6">_xlfn.VAR.S(B2:B16)</f>
-        <v>1.8380952380952382</v>
+        <f>_xlfn.STDEV.S(B2:B16)</f>
+        <v>1.3557637102737476</v>
       </c>
       <c r="C28">
-        <f t="shared" si="6"/>
-        <v>16.780952380952378</v>
+        <f>_xlfn.STDEV.S(C2:C16)</f>
+        <v>4.0964560757992237</v>
       </c>
       <c r="D28">
-        <f t="shared" si="6"/>
-        <v>9.2666666666666675</v>
+        <f>_xlfn.STDEV.S(D2:D16)</f>
+        <v>3.0441200151548999</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5137,20 +9766,39 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
       <c r="I30" s="1">
         <v>2</v>
       </c>
       <c r="J30">
-        <f t="shared" ref="J30:J38" si="7">COUNTIF($D$2:$D$16,I30)</f>
+        <f t="shared" ref="J30:J38" si="6">COUNTIF($D$2:$D$16,I30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>_xlfn.VAR.S(A2:A16)</f>
+        <v>2.2095238095238097</v>
+      </c>
+      <c r="B31">
+        <f>_xlfn.VAR.S(B2:B16)</f>
+        <v>1.8380952380952382</v>
+      </c>
+      <c r="C31">
+        <f>_xlfn.VAR.S(C2:C16)</f>
+        <v>16.780952380952378</v>
+      </c>
+      <c r="D31">
+        <f>_xlfn.VAR.S(D2:D16)</f>
+        <v>9.2666666666666675</v>
+      </c>
       <c r="I31" s="1">
         <v>3</v>
       </c>
       <c r="J31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -5159,62 +9807,175 @@
         <v>4</v>
       </c>
       <c r="J32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I33" s="1">
         <v>5</v>
       </c>
       <c r="J33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I34" s="1">
         <v>6</v>
       </c>
       <c r="J34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I35" s="1">
         <v>7</v>
       </c>
       <c r="J35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I36" s="1">
         <v>9</v>
       </c>
       <c r="J36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I38" s="1">
         <v>11</v>
       </c>
       <c r="J38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <f>CORREL(A2:A16,C2:C16)</f>
+        <v>-0.1321629623323802</v>
+      </c>
+      <c r="N42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42">
+        <f>M42*SQRT(F2-2)/SQRT(1-M42^2)</f>
+        <v>-0.48073736474481221</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>17</v>
+      </c>
+      <c r="R42">
+        <f>_xlfn.T.DIST.2T(-O42,F2-2)</f>
+        <v>0.6386927207001134</v>
+      </c>
+      <c r="T42" t="s">
+        <v>15</v>
+      </c>
+      <c r="U42">
+        <f>CORREL(B2:B16,C2:C16)</f>
+        <v>0.24607658693443349</v>
+      </c>
+      <c r="V42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W42">
+        <f>U42*SQRT(F2-2)/SQRT(1-U42^2)</f>
+        <v>0.91538962838729232</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z42">
+        <f>_xlfn.T.DIST.2T(W42,F2-2)</f>
+        <v>0.37665466911554946</v>
+      </c>
+    </row>
+    <row r="47" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <f>TINV(G2,F2-2)</f>
+        <v>1.7709333959868729</v>
+      </c>
+    </row>
+    <row r="49" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <f>I48/SQRT(I48^2 + F2-2)</f>
+        <v>0.4408608415078501</v>
+      </c>
+    </row>
+    <row r="59" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59">
+        <f>CORREL(A2:A16,D2:D16)</f>
+        <v>0.68088516573920044</v>
+      </c>
+      <c r="N59" t="s">
+        <v>16</v>
+      </c>
+      <c r="O59">
+        <f>M59*SQRT(F2-2)/SQRT(1-M59^2)</f>
+        <v>3.351992434861379</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s">
+        <v>17</v>
+      </c>
+      <c r="R59">
+        <f>_xlfn.T.DIST.2T(O59,F2-2)</f>
+        <v>5.2007448268020689E-3</v>
+      </c>
+      <c r="T59" t="s">
+        <v>15</v>
+      </c>
+      <c r="U59">
+        <f>CORREL(B2:B16,D2:D16)</f>
+        <v>0.44883274218056757</v>
+      </c>
+      <c r="V59" t="s">
+        <v>16</v>
+      </c>
+      <c r="W59">
+        <f>U59*SQRT(F2-2)/SQRT(1-U59^2)</f>
+        <v>1.8109454811338095</v>
+      </c>
+      <c r="X59" s="2"/>
+      <c r="Y59" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z59">
+        <f>_xlfn.T.DIST.2T(W59,F2-2)</f>
+        <v>9.3309789089877193E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5225,4 +9986,240 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005713D04CD59F7D4CB21533CC3CE029C6" ma:contentTypeVersion="6" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="0496e0c635ad503445227a9f658307b6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c4c04e55-077e-44e1-987a-5af518d89dd5" xmlns:ns4="4eb2efbd-18a0-4d33-b1f6-915ffbb871eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="116b33210d2303bd51d0d1c7decf4055" ns3:_="" ns4:_="">
+    <xsd:import namespace="c4c04e55-077e-44e1-987a-5af518d89dd5"/>
+    <xsd:import namespace="4eb2efbd-18a0-4d33-b1f6-915ffbb871eb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c4c04e55-077e-44e1-987a-5af518d89dd5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4eb2efbd-18a0-4d33-b1f6-915ffbb871eb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Udostępnianie" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Udostępnione dla — szczegóły" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="13" nillable="true" ma:displayName="Skrót wskazówki dotyczącej udostępniania" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44072157-63A7-4997-B158-0119C054C7E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c4c04e55-077e-44e1-987a-5af518d89dd5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4eb2efbd-18a0-4d33-b1f6-915ffbb871eb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34F1A8D7-8A15-4594-B0B3-C39528FCE10F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A21CA9E3-0674-4281-A09F-E6BBCC4BF57A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c4c04e55-077e-44e1-987a-5af518d89dd5"/>
+    <ds:schemaRef ds:uri="4eb2efbd-18a0-4d33-b1f6-915ffbb871eb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>